--- a/Udemy Free Courses - (popularity).xlsx
+++ b/Udemy Free Courses - (popularity).xlsx
@@ -37,7 +37,7 @@
     <t>Course Length</t>
   </si>
   <si>
-    <t>Number of Lectures</t>
+    <t>Number of Lessons</t>
   </si>
   <si>
     <t>Difficulity</t>
